--- a/trunk/Tasks.xlsx
+++ b/trunk/Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Worked by:</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Tasks waiting to be completed:</t>
   </si>
   <si>
-    <t>Colors</t>
-  </si>
-  <si>
     <t>Not started</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>21.02. - 21.02.</t>
   </si>
   <si>
-    <t>21.02-</t>
-  </si>
-  <si>
     <t>26.02-26.02</t>
   </si>
   <si>
@@ -83,6 +77,15 @@
   </si>
   <si>
     <t>Mikael, Angel and Georgi</t>
+  </si>
+  <si>
+    <t>Project plan v2</t>
+  </si>
+  <si>
+    <t>04.03.-</t>
+  </si>
+  <si>
+    <t>21.02-02.03</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -252,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +318,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,109 +652,113 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="D7" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -876,6 +892,12 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
+    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Tasks.xlsx
+++ b/trunk/Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Worked by:</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Group name and logo</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -55,15 +52,9 @@
     <t>Georgi</t>
   </si>
   <si>
-    <t>Website design</t>
-  </si>
-  <si>
     <t>Date started and finished</t>
   </si>
   <si>
-    <t>21.02. - 21.02.</t>
-  </si>
-  <si>
     <t>26.02-26.02</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>23.02.-</t>
   </si>
   <si>
-    <t>Mikael, Angel and Georgi</t>
-  </si>
-  <si>
     <t>Project plan v2</t>
   </si>
   <si>
@@ -86,6 +74,21 @@
   </si>
   <si>
     <t>21.02-02.03</t>
+  </si>
+  <si>
+    <t>Group logo</t>
+  </si>
+  <si>
+    <t>Mikaeil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.02. - </t>
+  </si>
+  <si>
+    <t>Website design/code</t>
+  </si>
+  <si>
+    <t>01.03-</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,9 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,9 +297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -630,7 +627,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,17 +642,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>18</v>
+      <c r="C1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -680,13 +677,13 @@
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -696,27 +693,27 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>5</v>
@@ -724,13 +721,13 @@
     </row>
     <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>60</v>
@@ -738,163 +735,167 @@
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>

--- a/trunk/Tasks.xlsx
+++ b/trunk/Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Worked by:</t>
   </si>
@@ -88,7 +88,40 @@
     <t>Website design/code</t>
   </si>
   <si>
-    <t>01.03-</t>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>07.03-</t>
+  </si>
+  <si>
+    <t>Event ERD</t>
+  </si>
+  <si>
+    <t>Mikaeil and Ilia</t>
+  </si>
+  <si>
+    <t>03.03.</t>
+  </si>
+  <si>
+    <t>Authenticator testing</t>
+  </si>
+  <si>
+    <t>Process report</t>
+  </si>
+  <si>
+    <t>05.03.</t>
+  </si>
+  <si>
+    <t>Initial application setup</t>
+  </si>
+  <si>
+    <t>10.03.</t>
+  </si>
+  <si>
+    <t>Paypal converter for C#</t>
+  </si>
+  <si>
+    <t>Research on future tech</t>
   </si>
 </sst>
 </file>
@@ -624,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +735,9 @@
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>480</v>
+      </c>
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,54 +783,102 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9">
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D10" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -899,6 +982,12 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
+    <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Tasks.xlsx
+++ b/trunk/Tasks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Worked by:</t>
   </si>
@@ -52,83 +52,107 @@
     <t>Georgi</t>
   </si>
   <si>
-    <t>Date started and finished</t>
-  </si>
-  <si>
-    <t>26.02-26.02</t>
-  </si>
-  <si>
-    <t>25.02.-25.02.</t>
-  </si>
-  <si>
     <t>Minutes worked</t>
   </si>
   <si>
-    <t>23.02.-</t>
-  </si>
-  <si>
     <t>Project plan v2</t>
   </si>
   <si>
-    <t>04.03.-</t>
-  </si>
-  <si>
-    <t>21.02-02.03</t>
-  </si>
-  <si>
     <t>Group logo</t>
   </si>
   <si>
     <t>Mikaeil</t>
   </si>
   <si>
-    <t xml:space="preserve">21.02. - </t>
-  </si>
-  <si>
     <t>Website design/code</t>
   </si>
   <si>
     <t>Angel</t>
   </si>
   <si>
-    <t>07.03-</t>
-  </si>
-  <si>
     <t>Event ERD</t>
   </si>
   <si>
     <t>Mikaeil and Ilia</t>
   </si>
   <si>
-    <t>03.03.</t>
-  </si>
-  <si>
     <t>Authenticator testing</t>
   </si>
   <si>
     <t>Process report</t>
   </si>
   <si>
-    <t>05.03.</t>
-  </si>
-  <si>
     <t>Initial application setup</t>
   </si>
   <si>
-    <t>10.03.</t>
-  </si>
-  <si>
     <t>Paypal converter for C#</t>
   </si>
   <si>
     <t>Research on future tech</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Date and hour started</t>
+  </si>
+  <si>
+    <t>06.03. || 15:00</t>
+  </si>
+  <si>
+    <t>11.03. || 18:48</t>
+  </si>
+  <si>
+    <t>10.03. || 20:00</t>
+  </si>
+  <si>
+    <t>25.02. || ?</t>
+  </si>
+  <si>
+    <t>26.02. || ?</t>
+  </si>
+  <si>
+    <t>23.02. || ?</t>
+  </si>
+  <si>
+    <t>03.03. || ?</t>
+  </si>
+  <si>
+    <t>07.03. || ?</t>
+  </si>
+  <si>
+    <t>9.03. || ?</t>
+  </si>
+  <si>
+    <t>05.03. || ?</t>
+  </si>
+  <si>
+    <t>21.02. || ?</t>
+  </si>
+  <si>
+    <t>21.02-02.03 || ?</t>
+  </si>
+  <si>
+    <t>10.03. || ?</t>
+  </si>
+  <si>
+    <t>as a Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +160,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +211,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -293,11 +335,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,9 +512,52 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -413,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +876,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -682,24 +884,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8">
         <v>120</v>
@@ -707,16 +918,27 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="28">
+        <f>(SUMIF(B:B, "*"&amp;J2&amp;"*",D:D ))</f>
+        <v>60</v>
+      </c>
+      <c r="L2" s="29">
+        <f>ROUND((K2)/60,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -724,191 +946,287 @@
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="J3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="21">
+        <f>(SUMIF(B:B, "*"&amp;J3&amp;"*",D:D ))</f>
+        <v>420</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" ref="L3:L7" si="0">ROUND((K3)/60,2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="J4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="21">
+        <f>(SUMIF(B:B, "*"&amp;J4&amp;"*",D:D ))</f>
+        <v>735</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9">
+        <v>120</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="21">
+        <f>(SUMIF(B:B, "*"&amp;J5&amp;"*",D:D ))</f>
+        <v>160</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9">
+        <v>120</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="J6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="21">
+        <f>SUM(K2:K5)</f>
+        <v>1375</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9">
+        <v>180</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="25">
+        <f>SUMIFS(D:D,B:B, "&lt;&gt;*"&amp;J2&amp;"*",B:B, "&lt;&gt;*"&amp;J3&amp;"*",B:B, "&lt;&gt;*"&amp;J4&amp;"*",B:B, "&lt;&gt;*"&amp;J5&amp;"*")</f>
+        <v>60</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9">
-        <v>480</v>
-      </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5">
+    </row>
+    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="9">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="D10" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
+    <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -988,7 +1306,38 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/Tasks.xlsx
+++ b/trunk/Tasks.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$36</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Worked by:</t>
   </si>
@@ -37,15 +40,9 @@
     <t>Project plan v1</t>
   </si>
   <si>
-    <t>Google code</t>
-  </si>
-  <si>
     <t>Ilia</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>Base documents (agenda, notes and meeting)</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Mikaeil and Ilia</t>
   </si>
   <si>
-    <t>Authenticator testing</t>
-  </si>
-  <si>
     <t>Process report</t>
   </si>
   <si>
@@ -115,43 +109,70 @@
     <t>10.03. || 20:00</t>
   </si>
   <si>
-    <t>25.02. || ?</t>
-  </si>
-  <si>
-    <t>26.02. || ?</t>
-  </si>
-  <si>
-    <t>23.02. || ?</t>
-  </si>
-  <si>
-    <t>03.03. || ?</t>
-  </si>
-  <si>
-    <t>07.03. || ?</t>
-  </si>
-  <si>
-    <t>9.03. || ?</t>
-  </si>
-  <si>
-    <t>05.03. || ?</t>
-  </si>
-  <si>
-    <t>21.02. || ?</t>
-  </si>
-  <si>
-    <t>21.02-02.03 || ?</t>
-  </si>
-  <si>
-    <t>10.03. || ?</t>
-  </si>
-  <si>
     <t>as a Group</t>
+  </si>
+  <si>
+    <t>Georgi and Ilia</t>
+  </si>
+  <si>
+    <t>Georgi and Ilia and Mikaeil</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SVN:Google code</t>
+  </si>
+  <si>
+    <t>DOT research Framework</t>
+  </si>
+  <si>
+    <t>25.02. || 15:00</t>
+  </si>
+  <si>
+    <t>19.02. || 14:20</t>
+  </si>
+  <si>
+    <t>26.02. || 15:50</t>
+  </si>
+  <si>
+    <t>Phidgit Authenticator testing</t>
+  </si>
+  <si>
+    <t>9.03. || 10:40</t>
+  </si>
+  <si>
+    <t>10.03. || 19:00</t>
+  </si>
+  <si>
+    <t>02.03. || 16:45</t>
+  </si>
+  <si>
+    <t>21.02. || ??:??</t>
+  </si>
+  <si>
+    <t>23.02. || ??:??</t>
+  </si>
+  <si>
+    <t>05.03. || ??:??</t>
+  </si>
+  <si>
+    <t>07.03. || ??:??</t>
+  </si>
+  <si>
+    <t>10.03. || 23:20</t>
+  </si>
+  <si>
+    <t>11.03. || 22:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm\.dd\.\ \|\|\ hh:mm"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +237,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -451,12 +478,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,6 +677,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +735,57 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -859,67 +1085,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="47" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>29</v>
+      <c r="C1" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="8">
-        <v>120</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="28">
         <f>(SUMIF(B:B, "*"&amp;J2&amp;"*",D:D ))</f>
@@ -929,414 +1157,480 @@
         <f>ROUND((K2)/60,2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5">
-        <v>100</v>
+      <c r="M2" s="22" t="str">
+        <f>ROUND((K2) / ($K$7), 2) * 100 &amp;"%"</f>
+        <v>4%</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8">
+        <v>120</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" s="21">
         <f>(SUMIF(B:B, "*"&amp;J3&amp;"*",D:D ))</f>
         <v>420</v>
       </c>
       <c r="L3" s="22">
-        <f t="shared" ref="L3:L7" si="0">ROUND((K3)/60,2)</f>
+        <f t="shared" ref="L3:L5" si="0">ROUND((K3)/60,2)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5">
-        <v>100</v>
+      <c r="M3" s="22" t="str">
+        <f>ROUND((K3) / ($K$7), 2) * 100 &amp;"%"</f>
+        <v>28%</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="48">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O3&amp;"*",$B:$B,"*"&amp;P$2&amp;"*"))</f>
+        <v>60</v>
+      </c>
+      <c r="Q3" s="41">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O3&amp;"*",$B:$B,"*"&amp;Q$2&amp;"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="41">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O3&amp;"*",$B:$B,"*"&amp;R$2&amp;"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="41">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O3&amp;"*",$B:$B,"*"&amp;S$2&amp;"*"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9">
+        <v>110</v>
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="21">
         <f>(SUMIF(B:B, "*"&amp;J4&amp;"*",D:D ))</f>
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="L4" s="22">
         <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+        <v>12.67</v>
+      </c>
+      <c r="M4" s="22" t="str">
+        <f>ROUND((K4) / ($K$7), 2) * 100 &amp;"%"</f>
+        <v>50%</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="48">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O4&amp;"*",$B:$B,"*"&amp;Q$2&amp;"*"))</f>
+        <v>420</v>
+      </c>
+      <c r="R4" s="40">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O4&amp;"*",$B:$B,"*"&amp;R$2&amp;"*"))</f>
+        <v>220</v>
+      </c>
+      <c r="S4" s="40">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O4&amp;"*",$B:$B,"*"&amp;S$2&amp;"*"))</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5">
+        <v>60</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9">
-        <v>120</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="K5" s="21">
         <f>(SUMIF(B:B, "*"&amp;J5&amp;"*",D:D ))</f>
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="0"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>4.67</v>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f>ROUND((K5) / ($K$7), 2) * 100 &amp;"%"</f>
+        <v>18%</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="48">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O5&amp;"*",$B:$B,"*"&amp;R$2&amp;"*"))</f>
+        <v>760</v>
+      </c>
+      <c r="S5" s="40">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O5&amp;"*",$B:$B,"*"&amp;S$2&amp;"*"))</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="J6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9">
-        <v>120</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="J6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="21">
-        <f>SUM(K2:K5)</f>
-        <v>1375</v>
-      </c>
-      <c r="L6" s="22">
-        <f t="shared" si="0"/>
-        <v>22.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9">
-        <v>180</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="K6" s="25">
         <f>SUMIFS(D:D,B:B, "&lt;&gt;*"&amp;J2&amp;"*",B:B, "&lt;&gt;*"&amp;J3&amp;"*",B:B, "&lt;&gt;*"&amp;J4&amp;"*",B:B, "&lt;&gt;*"&amp;J5&amp;"*")</f>
         <v>60</v>
       </c>
-      <c r="L7" s="26">
-        <f t="shared" si="0"/>
+      <c r="L6" s="26">
+        <f>ROUND((K6)/60,2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="26" t="str">
+        <f>ROUND(($K$6) / ($K$7), 2) * 100 &amp;"%"</f>
+        <v>4%</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="49">
+        <f>(SUMIFS($D:$D,$B:$B, "*"&amp;$O6&amp;"*",$B:$B,"*"&amp;S$2&amp;"*"))</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5">
+        <v>65</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="21">
+        <f>SUM(K2:K5)</f>
+        <v>1520</v>
+      </c>
+      <c r="L7" s="22">
+        <f>ROUND((K7)/60,2)</f>
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="e">
+        <f>IF(A2=H9, A2:D2, FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C12" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="14" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="15" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="9">
-        <v>90</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5">
-        <v>60</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="5">
-        <v>60</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:D16">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>IF($A2 = $H9, IF($I9 &lt;&gt;  "Y", TRUE, FALSE), FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF($A1048571 = $H2, IF($I2 =  "Y", TRUE, FALSE), FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
